--- a/medicine/Psychotrope/Okells/Okells.xlsx
+++ b/medicine/Psychotrope/Okells/Okells.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Okells est le nom d'une   brasserie fondée en 1850 par le Dr. William Okell à Douglas, sur l'île de Man.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dr William Okell, un chirurgien établi dans le Cheshire, fonda la brasserie Okells à Castle Hill, Douglas,  en 1850. Dès 1874 Okell se retrouva propriétaire d'un grand nombre de pubs sur l'île et persuada le Tynwald, l'assemblée dirigeante,  de passer une loi qui garantirait la pureté de la bière brassée sur Man. Les bières mannoises devaient être fabriquées exclusivement à partir de malt, de sucre, de houblon et ne contenir aucun additif. Il fit alors construire la brasserie Falcon, aux abords immédiats de Douglas. 
 En 1972, Okells passa aux mains de Heron &amp; Brearley, une entreprise locale de boissons. En 1986, elle fusionna avec la brasserie de Castletown pour donner naissance aux Brasseries de l'île de Man. 
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière brassée par Heron &amp; Brearley est en vente sur l'île et dans le Royaume-Uni. Okells possède quatre pubs en métropole : 
 Le Thomas Rigby's, Liverpool,
@@ -580,7 +596,9 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entreprise brasse quatre sortes de bières principales en vente à la pression :  
 Okells Bitter
@@ -591,7 +609,7 @@
 La Spring ram (le bélier printanier)
 La Summer Storm (L'orage estival)
 L'Autumn Dawn (L'aube automnale)
-La St. Nick (Saint Nick[1]).
+La St. Nick (Saint Nick).
 Enfin, elle produit cinq bières de façon irrégulière  :
 Dr. Okells Elixir (l'élixir du docteur Okell) (strong ale)
 Dr. Okells Eastern Spice (l'épice oriental du docteur Okell)
